--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3410F94D-13CF-46D0-9E50-1CB5775D5243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E146D6-4C15-49B8-B811-6A55B5575A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="login_page" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>dhanush</t>
   </si>
@@ -47,6 +48,18 @@
   </si>
   <si>
     <t>ph No</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>ud</t>
   </si>
 </sst>
 </file>
@@ -440,4 +453,47 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA267F1-87C8-4856-8CEC-7D5A9FC63E27}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>